--- a/Threat Analysis.xlsx
+++ b/Threat Analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\corel\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06109E06-0A2B-4014-91CB-28ACD2C818A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A2B7828-4006-4783-AB03-A8E4E77CBE03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="138">
   <si>
     <t>Component</t>
   </si>
@@ -463,6 +463,12 @@
   </si>
   <si>
     <t>Test presente</t>
+  </si>
+  <si>
+    <t>Test applicabile</t>
+  </si>
+  <si>
+    <t>Non fare 1562.001 (REBOOTA FORSE IL KERNEL)</t>
   </si>
 </sst>
 </file>
@@ -539,7 +545,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -548,7 +554,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -890,17 +895,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Foglio1"/>
-  <dimension ref="A1:G101"/>
+  <dimension ref="A1:G105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="24.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.58203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.08203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="49.9140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.9140625" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="255.58203125" bestFit="1" customWidth="1"/>
@@ -930,7 +935,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="8" t="s">
         <v>45</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -953,7 +958,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="8" t="s">
         <v>45</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -974,7 +979,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="8" t="s">
         <v>45</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -997,7 +1002,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="8" t="s">
         <v>45</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -1018,7 +1023,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="8" t="s">
         <v>45</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -1064,14 +1069,14 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="8" t="s">
         <v>83</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>17</v>
@@ -1196,14 +1201,14 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="8" t="s">
         <v>100</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>17</v>
@@ -1219,7 +1224,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="8" t="s">
         <v>100</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -1240,7 +1245,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="8" t="s">
         <v>100</v>
       </c>
       <c r="B16" s="4" t="s">
@@ -1335,7 +1340,7 @@
       <c r="C20" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="D20" s="4" t="s">
         <v>44</v>
       </c>
       <c r="E20" s="4" t="s">
@@ -1356,7 +1361,7 @@
         <v>19</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>44</v>
@@ -1379,7 +1384,7 @@
         <v>19</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>44</v>
@@ -1402,7 +1407,7 @@
         <v>19</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>17</v>
@@ -1425,7 +1430,7 @@
         <v>19</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>17</v>
@@ -1533,7 +1538,7 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A29" s="9" t="s">
+      <c r="A29" s="8" t="s">
         <v>48</v>
       </c>
       <c r="B29" s="4" t="s">
@@ -1554,7 +1559,7 @@
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A30" s="9" t="s">
+      <c r="A30" s="8" t="s">
         <v>48</v>
       </c>
       <c r="B30" s="4" t="s">
@@ -1582,7 +1587,7 @@
         <v>23</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>17</v>
@@ -1605,7 +1610,7 @@
         <v>23</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>17</v>
@@ -1628,7 +1633,7 @@
         <v>7</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>8</v>
@@ -1651,7 +1656,7 @@
         <v>7</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>8</v>
@@ -1667,7 +1672,7 @@
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A35" s="9" t="s">
+      <c r="A35" s="8" t="s">
         <v>14</v>
       </c>
       <c r="B35" s="4" t="s">
@@ -1690,7 +1695,7 @@
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A36" s="9" t="s">
+      <c r="A36" s="8" t="s">
         <v>14</v>
       </c>
       <c r="B36" s="4" t="s">
@@ -1713,7 +1718,7 @@
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A37" s="9" t="s">
+      <c r="A37" s="8" t="s">
         <v>14</v>
       </c>
       <c r="B37" s="4" t="s">
@@ -1734,7 +1739,7 @@
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A38" s="9" t="s">
+      <c r="A38" s="8" t="s">
         <v>14</v>
       </c>
       <c r="B38" s="4" t="s">
@@ -1755,14 +1760,14 @@
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A39" s="9" t="s">
+      <c r="A39" s="8" t="s">
         <v>14</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D39" s="4" t="s">
         <v>8</v>
@@ -1778,14 +1783,14 @@
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A40" s="9" t="s">
+      <c r="A40" s="8" t="s">
         <v>14</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D40" s="4" t="s">
         <v>8</v>
@@ -1801,7 +1806,7 @@
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A41" s="9" t="s">
+      <c r="A41" s="8" t="s">
         <v>14</v>
       </c>
       <c r="B41" s="4" t="s">
@@ -1824,7 +1829,7 @@
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A42" s="9" t="s">
+      <c r="A42" s="8" t="s">
         <v>14</v>
       </c>
       <c r="B42" s="4" t="s">
@@ -1847,7 +1852,7 @@
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A43" s="9" t="s">
+      <c r="A43" s="8" t="s">
         <v>115</v>
       </c>
       <c r="B43" s="4" t="s">
@@ -1898,7 +1903,7 @@
         <v>7</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D45" s="4" t="s">
         <v>8</v>
@@ -1956,14 +1961,14 @@
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A48" s="9" t="s">
+      <c r="A48" s="8" t="s">
         <v>98</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D48" s="4" t="s">
         <v>17</v>
@@ -1979,7 +1984,7 @@
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A49" s="9" t="s">
+      <c r="A49" s="8" t="s">
         <v>98</v>
       </c>
       <c r="B49" s="4" t="s">
@@ -2000,7 +2005,7 @@
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A50" s="9" t="s">
+      <c r="A50" s="8" t="s">
         <v>98</v>
       </c>
       <c r="B50" s="4" t="s">
@@ -2021,7 +2026,7 @@
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A51" s="9" t="s">
+      <c r="A51" s="8" t="s">
         <v>26</v>
       </c>
       <c r="B51" s="4" t="s">
@@ -2042,14 +2047,14 @@
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A52" s="9" t="s">
+      <c r="A52" s="8" t="s">
         <v>26</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D52" s="4" t="s">
         <v>17</v>
@@ -2065,7 +2070,7 @@
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A53" s="9" t="s">
+      <c r="A53" s="8" t="s">
         <v>26</v>
       </c>
       <c r="B53" s="4" t="s">
@@ -2088,7 +2093,7 @@
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A54" s="9" t="s">
+      <c r="A54" s="8" t="s">
         <v>26</v>
       </c>
       <c r="B54" s="4" t="s">
@@ -2132,7 +2137,7 @@
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A56" s="9" t="s">
+      <c r="A56" s="8" t="s">
         <v>90</v>
       </c>
       <c r="B56" s="4" t="s">
@@ -2155,7 +2160,7 @@
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A57" s="9" t="s">
+      <c r="A57" s="8" t="s">
         <v>90</v>
       </c>
       <c r="B57" s="4" t="s">
@@ -2176,7 +2181,7 @@
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A58" s="9" t="s">
+      <c r="A58" s="8" t="s">
         <v>90</v>
       </c>
       <c r="B58" s="4" t="s">
@@ -2197,7 +2202,7 @@
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A59" s="9" t="s">
+      <c r="A59" s="8" t="s">
         <v>90</v>
       </c>
       <c r="B59" s="4" t="s">
@@ -2218,14 +2223,14 @@
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A60" s="9" t="s">
+      <c r="A60" s="8" t="s">
         <v>90</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D60" s="4" t="s">
         <v>8</v>
@@ -2304,7 +2309,7 @@
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A64" s="9" t="s">
+      <c r="A64" s="8" t="s">
         <v>41</v>
       </c>
       <c r="B64" s="4" t="s">
@@ -2332,7 +2337,7 @@
         <v>23</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D65" s="4" t="s">
         <v>17</v>
@@ -2348,7 +2353,7 @@
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A66" s="9" t="s">
+      <c r="A66" s="8" t="s">
         <v>41</v>
       </c>
       <c r="B66" s="4" t="s">
@@ -2371,7 +2376,7 @@
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A67" s="9" t="s">
+      <c r="A67" s="8" t="s">
         <v>41</v>
       </c>
       <c r="B67" s="4" t="s">
@@ -2392,7 +2397,7 @@
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A68" s="9" t="s">
+      <c r="A68" s="8" t="s">
         <v>119</v>
       </c>
       <c r="B68" s="4" t="s">
@@ -2443,7 +2448,7 @@
         <v>7</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D70" s="4" t="s">
         <v>8</v>
@@ -2459,7 +2464,7 @@
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A71" s="9" t="s">
+      <c r="A71" s="8" t="s">
         <v>22</v>
       </c>
       <c r="B71" s="4" t="s">
@@ -2480,14 +2485,14 @@
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A72" s="9" t="s">
+      <c r="A72" s="8" t="s">
         <v>22</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D72" s="4" t="s">
         <v>17</v>
@@ -2503,7 +2508,7 @@
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A73" s="9" t="s">
+      <c r="A73" s="8" t="s">
         <v>22</v>
       </c>
       <c r="B73" s="4" t="s">
@@ -2526,7 +2531,7 @@
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A74" s="9" t="s">
+      <c r="A74" s="8" t="s">
         <v>22</v>
       </c>
       <c r="B74" s="4" t="s">
@@ -2612,14 +2617,14 @@
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A78" s="9" t="s">
+      <c r="A78" s="8" t="s">
         <v>101</v>
       </c>
       <c r="B78" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D78" s="4" t="s">
         <v>17</v>
@@ -2635,7 +2640,7 @@
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A79" s="9" t="s">
+      <c r="A79" s="8" t="s">
         <v>101</v>
       </c>
       <c r="B79" s="4" t="s">
@@ -2656,7 +2661,7 @@
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A80" s="9" t="s">
+      <c r="A80" s="8" t="s">
         <v>101</v>
       </c>
       <c r="B80" s="4" t="s">
@@ -2730,7 +2735,7 @@
       <c r="C83" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="D83" s="4" t="s">
+      <c r="D83" s="7" t="s">
         <v>8</v>
       </c>
       <c r="E83" s="4" t="s">
@@ -2813,14 +2818,14 @@
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A87" s="9" t="s">
+      <c r="A87" s="8" t="s">
         <v>34</v>
       </c>
       <c r="B87" s="4" t="s">
         <v>15</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D87" s="4" t="s">
         <v>8</v>
@@ -2836,7 +2841,7 @@
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A88" s="9" t="s">
+      <c r="A88" s="8" t="s">
         <v>34</v>
       </c>
       <c r="B88" s="4" t="s">
@@ -2857,14 +2862,14 @@
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A89" s="9" t="s">
+      <c r="A89" s="8" t="s">
         <v>34</v>
       </c>
       <c r="B89" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D89" s="4" t="s">
         <v>8</v>
@@ -2880,7 +2885,7 @@
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A90" s="9" t="s">
+      <c r="A90" s="8" t="s">
         <v>93</v>
       </c>
       <c r="B90" s="4" t="s">
@@ -2903,7 +2908,7 @@
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A91" s="9" t="s">
+      <c r="A91" s="8" t="s">
         <v>93</v>
       </c>
       <c r="B91" s="4" t="s">
@@ -2931,7 +2936,7 @@
         <v>7</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D92" s="4" t="s">
         <v>8</v>
@@ -2947,7 +2952,7 @@
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A93" s="9" t="s">
+      <c r="A93" s="8" t="s">
         <v>96</v>
       </c>
       <c r="B93" s="4" t="s">
@@ -2970,7 +2975,7 @@
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A94" s="9" t="s">
+      <c r="A94" s="8" t="s">
         <v>96</v>
       </c>
       <c r="B94" s="4" t="s">
@@ -2998,7 +3003,7 @@
         <v>7</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D95" s="4" t="s">
         <v>8</v>
@@ -3042,6 +3047,11 @@
         <v>34</v>
       </c>
       <c r="D101" s="1"/>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A105" t="s">
+        <v>137</v>
+      </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N95">
